--- a/Projects/OMD_CAN_F3_UWB R2/BOM/Bill of Materials-OMD_CAN_F3_UWB.xlsx
+++ b/Projects/OMD_CAN_F3_UWB R2/BOM/Bill of Materials-OMD_CAN_F3_UWB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="22365" xr2:uid="{45B7B523-E79C-4922-8014-75846C884A44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="22365" xr2:uid="{A539B954-4690-4DFD-A8CF-EF4D58CB6F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-OMD_CAN_F3_UW" sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD6B8DC-2A12-4B91-B057-ABB9D3D857FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B5B3B8-B753-49FB-953E-832577D65A15}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1722,69 +1722,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" tooltip="Component" display="'" xr:uid="{A5D02E4A-F705-4AD0-83D4-BC13EDFCFBBF}"/>
-    <hyperlink ref="G2" tooltip="Manufacturer" display="'" xr:uid="{E495C1F7-05FD-48A3-A680-1F01B1C2D261}"/>
-    <hyperlink ref="L2" tooltip="Supplier" display="'490-10510-1-ND" xr:uid="{A31AAE56-4247-4C9D-A8BC-CAA3ED59639C}"/>
-    <hyperlink ref="F3" tooltip="Component" display="'" xr:uid="{9B391757-FCFF-4AD3-8FF0-50463845C610}"/>
-    <hyperlink ref="G3" tooltip="Manufacturer" display="'" xr:uid="{520BC280-0307-4EDF-95D2-41EAE5430DB7}"/>
-    <hyperlink ref="L3" tooltip="Supplier" display="'490-7229-2-ND" xr:uid="{6D61C5DF-BC1A-4BD7-8973-93A1B8D673A2}"/>
-    <hyperlink ref="F4" tooltip="Component" display="'" xr:uid="{0DD0A83B-AC72-4B95-AAF2-C1356224FE44}"/>
-    <hyperlink ref="G4" tooltip="Manufacturer" display="'" xr:uid="{4F9EC8DA-8C03-4165-ACA7-08BD403B832F}"/>
-    <hyperlink ref="L4" tooltip="Supplier" display="'490-10404-2-ND" xr:uid="{7FE10D2A-2969-411B-B231-E75B59710A33}"/>
-    <hyperlink ref="F5" tooltip="Component" display="'" xr:uid="{AC3D2960-77AD-44EC-AFD5-4FE72455E0F6}"/>
-    <hyperlink ref="G5" tooltip="Manufacturer" display="'" xr:uid="{4E946118-CDAA-48DF-85B4-A6C643ACB737}"/>
-    <hyperlink ref="L5" tooltip="Supplier" display="'587-3766-1-ND" xr:uid="{38DAE019-15FF-4088-B048-E9752B22646D}"/>
-    <hyperlink ref="F6" tooltip="Component" display="'" xr:uid="{CDBB5355-1B13-44F8-9463-333303265FF2}"/>
-    <hyperlink ref="G6" tooltip="Manufacturer" display="'" xr:uid="{B03BB343-8C8B-4F93-9E98-2C6946129AFA}"/>
-    <hyperlink ref="L6" tooltip="Supplier" display="'311-1047-2-ND" xr:uid="{B8FA8B6F-66BC-4CA0-8131-21987AC53094}"/>
-    <hyperlink ref="F7" tooltip="Component" display="'" xr:uid="{52B8C4BF-3792-47ED-A03E-50A4B1A5CFBE}"/>
-    <hyperlink ref="G7" tooltip="Manufacturer" display="'" xr:uid="{34AF2E9D-2353-4CAB-B694-0A6C6485EA47}"/>
-    <hyperlink ref="L7" tooltip="Supplier" display="'445-6007-2-ND" xr:uid="{6CF9EE5D-1866-4B3F-9FE8-2F866243BFBC}"/>
-    <hyperlink ref="F8" tooltip="Component" display="'" xr:uid="{6885B79A-4376-431C-BA2D-78E2C63733C7}"/>
-    <hyperlink ref="G8" tooltip="Manufacturer" display="'" xr:uid="{377396C4-ED44-486A-A248-49E0B939B871}"/>
-    <hyperlink ref="L8" tooltip="Supplier" display="'490-13331-1-ND" xr:uid="{730814F9-C0B5-4712-AF2E-5123F83C3717}"/>
-    <hyperlink ref="F9" tooltip="Component" display="'" xr:uid="{9F189B07-83BE-4652-AEC5-45B9FB3C2286}"/>
-    <hyperlink ref="G9" tooltip="Manufacturer" display="'" xr:uid="{688D7B28-722F-421D-A58C-95C3E85EFAED}"/>
-    <hyperlink ref="L9" tooltip="Supplier" display="'445-6893-1-ND" xr:uid="{A5707FB2-CC73-468D-90F7-77568EF16AD5}"/>
-    <hyperlink ref="F10" tooltip="Component" display="'" xr:uid="{90894040-93E2-4B94-884A-A609C7C5E85D}"/>
-    <hyperlink ref="G10" tooltip="Manufacturer" display="'" xr:uid="{2183DD25-DCE8-4BE2-8165-9C58DEA4944A}"/>
-    <hyperlink ref="L10" tooltip="Supplier" display="'587-3766-1-ND" xr:uid="{AFE07D92-BC1B-43F9-9F5E-51C1B9F25780}"/>
-    <hyperlink ref="F11" tooltip="Component" display="'" xr:uid="{1112C86B-44F6-46E2-9E1C-76600516E064}"/>
-    <hyperlink ref="G11" tooltip="Manufacturer" display="'" xr:uid="{9675B46D-1C62-4AC4-826D-44253EC42958}"/>
-    <hyperlink ref="L11" tooltip="Supplier" display="'587-3391-1-ND" xr:uid="{573931DF-0E5E-40D5-AD05-9826F53ABC4A}"/>
-    <hyperlink ref="F12" tooltip="Component" display="'" xr:uid="{3B33810A-EFFA-40DA-A20D-EAF1E5AC3176}"/>
-    <hyperlink ref="G12" tooltip="Manufacturer" display="'" xr:uid="{03A9FDFB-5535-4D52-97B9-ECF310D1CDEB}"/>
-    <hyperlink ref="L12" tooltip="Supplier" display="'455-1566-2-ND" xr:uid="{370295F9-B36A-4246-A979-06C210453062}"/>
-    <hyperlink ref="F13" tooltip="Component" display="'" xr:uid="{7CF563ED-F012-41D2-8B89-AEFBEE94DB7A}"/>
-    <hyperlink ref="G13" tooltip="Manufacturer" display="'" xr:uid="{96D16FFB-26A4-40EF-A6E7-7D10ED754B58}"/>
-    <hyperlink ref="L13" tooltip="Supplier" display="'754-1802-1-ND" xr:uid="{849BA484-A869-4DC7-962B-05F30314A764}"/>
-    <hyperlink ref="F14" tooltip="Component" display="'" xr:uid="{8369CEFB-7884-439A-ADC9-F64EFF3E83D9}"/>
-    <hyperlink ref="G14" tooltip="Manufacturer" display="'" xr:uid="{CB6FBEA2-19B6-4082-B361-2CF06505233A}"/>
-    <hyperlink ref="L14" tooltip="Supplier" display="'SM06B-SURS-TF(LF)(SN)-ND" xr:uid="{F5C71B38-225E-47D4-AF67-617FC0503447}"/>
-    <hyperlink ref="F15" tooltip="Component" display="'" xr:uid="{A1AA2556-2025-4584-B371-6AAC37AF35F5}"/>
-    <hyperlink ref="G15" tooltip="Manufacturer" display="'" xr:uid="{9208D63D-7058-425E-9227-EB4E742CCA44}"/>
-    <hyperlink ref="L15" tooltip="Supplier" display="'311-120JRTR-ND" xr:uid="{B13E73F0-2809-45D9-B8BA-D86A6BD343C8}"/>
-    <hyperlink ref="F16" tooltip="Component" display="'" xr:uid="{183014AD-8CE6-4A85-9D4E-0E02ABC59410}"/>
-    <hyperlink ref="G16" tooltip="Manufacturer" display="'" xr:uid="{B3353CEC-B793-489C-B323-8CC5A5FDE2F8}"/>
-    <hyperlink ref="L16" tooltip="Supplier" display="'311-220LRCT-ND" xr:uid="{C262777A-04ED-491C-AD38-B1EA53AE0339}"/>
-    <hyperlink ref="F17" tooltip="Component" display="'" xr:uid="{6799E6D7-3FDE-45B3-B9C5-5529D870E812}"/>
-    <hyperlink ref="G17" tooltip="Manufacturer" display="'" xr:uid="{AAF156F4-E66F-4204-ADE5-8CAEC10B4AD8}"/>
-    <hyperlink ref="L17" tooltip="Supplier" display="'455-1582-2-ND" xr:uid="{6F69B44F-923F-4A31-A190-ABD5E23D1238}"/>
-    <hyperlink ref="F18" tooltip="Component" display="'" xr:uid="{40F1C90B-7E02-4EA0-8779-ED6D8D513428}"/>
-    <hyperlink ref="G18" tooltip="Manufacturer" display="'" xr:uid="{0D3404E6-83CC-456F-8F91-A3069D1BCA1E}"/>
-    <hyperlink ref="L18" tooltip="Supplier" display="'576-3680-1-ND" xr:uid="{664DC978-3200-412C-A257-000744A052E4}"/>
-    <hyperlink ref="F19" tooltip="Component" display="'" xr:uid="{39E4B21E-2B0B-4E15-8BC9-4334984FF536}"/>
-    <hyperlink ref="G19" tooltip="Manufacturer" display="'" xr:uid="{24FEAB8C-43A4-48AD-B18F-4BD361AF7063}"/>
-    <hyperlink ref="L19" tooltip="Supplier" display="'568-8686-2-ND" xr:uid="{A47B028F-BBC8-46DA-9BB8-FCC09A8D26EE}"/>
-    <hyperlink ref="F20" tooltip="Component" display="'" xr:uid="{F8941D95-2DC7-499F-8E26-95BD53F1ECB0}"/>
-    <hyperlink ref="G20" tooltip="Manufacturer" display="'" xr:uid="{3A452772-AEE0-4F69-8417-68D5CE0805D9}"/>
-    <hyperlink ref="L20" tooltip="Supplier" display="'41Y5840" xr:uid="{42B1B643-865B-4F99-A81E-7E775FF12604}"/>
-    <hyperlink ref="F21" tooltip="Component" display="'" xr:uid="{435C888B-6E4B-4DA2-AAC9-0CD883F2D989}"/>
-    <hyperlink ref="G21" tooltip="Manufacturer" display="'" xr:uid="{B37C2F18-5D47-452C-8126-2F6A2B6F5AA0}"/>
-    <hyperlink ref="L21" tooltip="Supplier" display="'1479-1002-2-ND" xr:uid="{7A562864-B328-4AAA-9730-4D2C56EB7667}"/>
-    <hyperlink ref="F22" tooltip="Component" display="'" xr:uid="{81FF1515-51B1-4B61-AF9C-4D3DCE3E4E8D}"/>
-    <hyperlink ref="G22" tooltip="Manufacturer" display="'" xr:uid="{DCDE4CF5-F5B5-45EA-B776-4666A6259F2B}"/>
-    <hyperlink ref="L22" tooltip="Supplier" display="'887-1846-2-ND" xr:uid="{2D5C6B35-3190-4FD7-8092-78A326376FFD}"/>
+    <hyperlink ref="F2" tooltip="Component" display="'" xr:uid="{B72F6C2A-C75C-4CA8-BCDC-C5742A81CD68}"/>
+    <hyperlink ref="G2" tooltip="Manufacturer" display="'" xr:uid="{D32F3310-1A2E-47C7-9988-5E14280B528D}"/>
+    <hyperlink ref="L2" tooltip="Supplier" display="'490-10510-1-ND" xr:uid="{3289252B-3386-4105-BD8B-6EA4828E0136}"/>
+    <hyperlink ref="F3" tooltip="Component" display="'" xr:uid="{E1179D05-5D44-4C41-B8F0-910A397F028A}"/>
+    <hyperlink ref="G3" tooltip="Manufacturer" display="'" xr:uid="{E6BEA0C8-6735-4364-AC4A-C80A08C395C1}"/>
+    <hyperlink ref="L3" tooltip="Supplier" display="'490-7229-2-ND" xr:uid="{FDBD6FF5-CEAD-4CD4-A106-A75E3EC74E53}"/>
+    <hyperlink ref="F4" tooltip="Component" display="'" xr:uid="{84158F5A-2FB9-4A8C-822F-AF93ED50D729}"/>
+    <hyperlink ref="G4" tooltip="Manufacturer" display="'" xr:uid="{1B2E0148-F2F7-45E6-AB75-424D4E54E3EA}"/>
+    <hyperlink ref="L4" tooltip="Supplier" display="'490-10404-2-ND" xr:uid="{3DD21AA5-39D3-496D-B644-ED4956BBA8C5}"/>
+    <hyperlink ref="F5" tooltip="Component" display="'" xr:uid="{7344F25B-3C8C-4DCC-A812-A2EEAAB4432E}"/>
+    <hyperlink ref="G5" tooltip="Manufacturer" display="'" xr:uid="{FE869A31-9EB9-4750-B0E8-BCBD142F6152}"/>
+    <hyperlink ref="L5" tooltip="Supplier" display="'587-3766-1-ND" xr:uid="{365C0D2A-1F16-492F-8B6D-7FD849E7027A}"/>
+    <hyperlink ref="F6" tooltip="Component" display="'" xr:uid="{5FF20E1B-E43A-4A93-B4E5-5B5AF86B33D4}"/>
+    <hyperlink ref="G6" tooltip="Manufacturer" display="'" xr:uid="{2B1B6729-91DD-46A9-B6C3-A5840B021CAF}"/>
+    <hyperlink ref="L6" tooltip="Supplier" display="'311-1047-2-ND" xr:uid="{E751EEDC-90E8-4B63-9289-89E11B2AE537}"/>
+    <hyperlink ref="F7" tooltip="Component" display="'" xr:uid="{213F0EE6-275A-48B9-9BCD-F659387E42EC}"/>
+    <hyperlink ref="G7" tooltip="Manufacturer" display="'" xr:uid="{2617A201-9201-4003-A028-7BC58BA9C13C}"/>
+    <hyperlink ref="L7" tooltip="Supplier" display="'445-6007-2-ND" xr:uid="{5E65037B-6F9C-4C26-9B8F-FCE5B222C6FA}"/>
+    <hyperlink ref="F8" tooltip="Component" display="'" xr:uid="{398B2CC2-26AF-4E52-A1D0-2D2F92C101CA}"/>
+    <hyperlink ref="G8" tooltip="Manufacturer" display="'" xr:uid="{9EE61731-8FD3-434C-BABF-711EC2ABEB20}"/>
+    <hyperlink ref="L8" tooltip="Supplier" display="'490-13331-1-ND" xr:uid="{141F533E-0D15-453B-A3EA-DA300ABA60BA}"/>
+    <hyperlink ref="F9" tooltip="Component" display="'" xr:uid="{49DE0BA1-A87E-43C0-A26A-C8D82E5BB416}"/>
+    <hyperlink ref="G9" tooltip="Manufacturer" display="'" xr:uid="{E4423081-3ECC-41D1-ACA7-EEB1FAE4BB25}"/>
+    <hyperlink ref="L9" tooltip="Supplier" display="'445-6893-1-ND" xr:uid="{4799254C-7915-4BC5-94C7-EAAF4C0AB126}"/>
+    <hyperlink ref="F10" tooltip="Component" display="'" xr:uid="{DF022487-741A-45B7-8CA3-3E1100095460}"/>
+    <hyperlink ref="G10" tooltip="Manufacturer" display="'" xr:uid="{30A4E652-C9C4-4860-BCB0-17CE1B930790}"/>
+    <hyperlink ref="L10" tooltip="Supplier" display="'587-3766-1-ND" xr:uid="{F3E15C25-B407-4C6F-B968-1848C8B81856}"/>
+    <hyperlink ref="F11" tooltip="Component" display="'" xr:uid="{914CD2E6-D172-4EBC-9A1A-1875A3AA33AD}"/>
+    <hyperlink ref="G11" tooltip="Manufacturer" display="'" xr:uid="{303BA360-DD9A-4479-87F9-40AA8D3A38EB}"/>
+    <hyperlink ref="L11" tooltip="Supplier" display="'587-3391-1-ND" xr:uid="{ED1B2BC4-3F31-4713-AA86-74C5BDBD1536}"/>
+    <hyperlink ref="F12" tooltip="Component" display="'" xr:uid="{E1171BAD-0F9F-4501-ADE7-6DB5DBB6A9FF}"/>
+    <hyperlink ref="G12" tooltip="Manufacturer" display="'" xr:uid="{DD19A69D-DB4D-42DB-A8AA-5D76BAC5E5EE}"/>
+    <hyperlink ref="L12" tooltip="Supplier" display="'455-1566-2-ND" xr:uid="{2DD968DE-57BF-4D90-B57B-EC6BC415DD3E}"/>
+    <hyperlink ref="F13" tooltip="Component" display="'" xr:uid="{AE266CE7-4823-4FC8-BA0C-12A27A5F91E3}"/>
+    <hyperlink ref="G13" tooltip="Manufacturer" display="'" xr:uid="{61FE773A-2D2B-41A1-8527-FF25F0A8AE45}"/>
+    <hyperlink ref="L13" tooltip="Supplier" display="'754-1802-1-ND" xr:uid="{33999028-82D1-4EC8-A623-7C25D2524511}"/>
+    <hyperlink ref="F14" tooltip="Component" display="'" xr:uid="{95AF9601-33A1-4C02-8041-3DEE9A80EA20}"/>
+    <hyperlink ref="G14" tooltip="Manufacturer" display="'" xr:uid="{A7A3B020-C7EE-4894-A0DE-C62F69B862E7}"/>
+    <hyperlink ref="L14" tooltip="Supplier" display="'SM06B-SURS-TF(LF)(SN)-ND" xr:uid="{77E34134-C3C0-44C8-9A44-42F309455935}"/>
+    <hyperlink ref="F15" tooltip="Component" display="'" xr:uid="{1C0B21D4-83A5-4014-B39F-87A1C60CFC58}"/>
+    <hyperlink ref="G15" tooltip="Manufacturer" display="'" xr:uid="{E827A4F2-6049-4B0E-A853-1F2AD7EDB412}"/>
+    <hyperlink ref="L15" tooltip="Supplier" display="'311-120JRTR-ND" xr:uid="{1B453ABA-BE6C-4B79-8B56-98F6669CCEAF}"/>
+    <hyperlink ref="F16" tooltip="Component" display="'" xr:uid="{08FE9FD4-0588-4DDC-BC51-0FE80CD269D2}"/>
+    <hyperlink ref="G16" tooltip="Manufacturer" display="'" xr:uid="{916E52F3-1E46-4166-9B3A-FD4383FEA105}"/>
+    <hyperlink ref="L16" tooltip="Supplier" display="'311-220LRCT-ND" xr:uid="{CA4A6A8E-500F-4D09-9B58-1F85394E2A22}"/>
+    <hyperlink ref="F17" tooltip="Component" display="'" xr:uid="{E7792763-DAF9-4F6B-B24B-5FADA5ECC57F}"/>
+    <hyperlink ref="G17" tooltip="Manufacturer" display="'" xr:uid="{419BCABA-07DB-46C7-8CB1-C6638BF89E57}"/>
+    <hyperlink ref="L17" tooltip="Supplier" display="'455-1582-2-ND" xr:uid="{99018D83-AF55-442E-B117-AF8AA99EE173}"/>
+    <hyperlink ref="F18" tooltip="Component" display="'" xr:uid="{EDFA06AF-1E4A-4D10-8E66-A03BC64E00A3}"/>
+    <hyperlink ref="G18" tooltip="Manufacturer" display="'" xr:uid="{A0E039E2-C620-4A70-91D3-F8E915B11AA2}"/>
+    <hyperlink ref="L18" tooltip="Supplier" display="'576-3680-1-ND" xr:uid="{44B9BC44-8CF8-4819-9FDB-01A3D8553CDD}"/>
+    <hyperlink ref="F19" tooltip="Component" display="'" xr:uid="{19FBBBDD-D720-4DF9-BC47-58A1DFACCE90}"/>
+    <hyperlink ref="G19" tooltip="Manufacturer" display="'" xr:uid="{3E9FA159-958A-43B2-8F20-3EB9CDDE31A7}"/>
+    <hyperlink ref="L19" tooltip="Supplier" display="'568-8686-2-ND" xr:uid="{247B70A5-00D6-4F9C-BA91-0A59DA5F1019}"/>
+    <hyperlink ref="F20" tooltip="Component" display="'" xr:uid="{044B1D27-3453-4B2F-A2C8-C653F90A8341}"/>
+    <hyperlink ref="G20" tooltip="Manufacturer" display="'" xr:uid="{BF78EEF6-5952-4DD7-9794-1AA92B70817F}"/>
+    <hyperlink ref="L20" tooltip="Supplier" display="'41Y5840" xr:uid="{07517CFB-B34A-4949-9F48-E46DBD723755}"/>
+    <hyperlink ref="F21" tooltip="Component" display="'" xr:uid="{FF4097B5-DBDE-4B2B-A67A-097564EAD9E5}"/>
+    <hyperlink ref="G21" tooltip="Manufacturer" display="'" xr:uid="{9CB74BF9-D4A0-4266-BEA7-DAA8D70DCFDA}"/>
+    <hyperlink ref="L21" tooltip="Supplier" display="'1479-1002-2-ND" xr:uid="{CE79864F-45FA-49F5-8FAB-82F85CAF9273}"/>
+    <hyperlink ref="F22" tooltip="Component" display="'" xr:uid="{C9F7C09C-A9AC-4EC8-A18E-5318E19FB456}"/>
+    <hyperlink ref="G22" tooltip="Manufacturer" display="'" xr:uid="{9BBE06FB-A04E-457E-BA46-1155586EE898}"/>
+    <hyperlink ref="L22" tooltip="Supplier" display="'887-1846-2-ND" xr:uid="{DF5D68AF-CA69-4C5A-AF13-947F53811647}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
